--- a/자유수강권자 환불/한자속독(교재).xlsx
+++ b/자유수강권자 환불/한자속독(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>주야</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>김채윤</t>
+  </si>
+  <si>
+    <t>김현수</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>고윤서</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>성원제</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,11 +247,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -244,6 +300,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -538,9 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -813,10 +878,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -830,16 +895,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -853,16 +918,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -876,16 +941,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -899,16 +964,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -922,16 +987,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -948,13 +1013,13 @@
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -968,16 +1033,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -991,16 +1056,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1014,23 +1079,80 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.5">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
